--- a/設計/設計.xlsx
+++ b/設計/設計.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fujiitakaharu/work/git/message_app/設計/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fujiitakaharu/vagrant/ubuntu64_18/workspace2/message_app/設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681FE233-5C92-D64B-A1F4-D1964D861CDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6656C97-0CFA-5847-9B51-C72BC6E7F13D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="16580" xr2:uid="{90E6F4FC-4BB3-1E45-87B0-C6794DF43554}"/>
+    <workbookView xWindow="20" yWindow="580" windowWidth="28300" windowHeight="16580" xr2:uid="{90E6F4FC-4BB3-1E45-87B0-C6794DF43554}"/>
   </bookViews>
   <sheets>
     <sheet name="1.アプリ概要" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>FlutterはGoogleが開発した、iOS、Android向けアプリのクロスプラットフォーム開発環境。</t>
     <rPh sb="31" eb="32">
@@ -63,19 +63,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>クロスプラットフォーム開発において今最も人気のあるFlutterを開発環境として選択。</t>
-    <rPh sb="7" eb="8">
-      <t>ヲセンタク</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>カイハテゥ</t>
-    </rPh>
-    <rPh sb="33" eb="37">
-      <t>カイハテゥ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Flutterを用いた、LINEのようなメッセージアプリの作成。（かなり簡略化したもの）</t>
     <rPh sb="29" eb="31">
       <t>サクセイ</t>
@@ -100,16 +87,6 @@
   </si>
   <si>
     <t>mBassとしてFirebaseを利用する。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログインユーザ、及メッセージ入力内容をFirebaseで管理する。</t>
-    <rPh sb="0" eb="2">
-      <t>ログインユーザ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>オヨビ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -133,24 +110,6 @@
   </si>
   <si>
     <t>1.アプリ概要</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1-1.アプリ内容</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1-1-1.Firebaseで利用する機能</t>
-    <rPh sb="15" eb="17">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1-2.Flutterとは？</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -183,6 +142,106 @@
   </si>
   <si>
     <t>2.画面遷移</t>
+  </si>
+  <si>
+    <t>ログインユーザ、およびメッセージ入力内容をFirebaseで管理する。</t>
+    <rPh sb="0" eb="2">
+      <t>ログインユーザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Firestoreには下記の情報を保存する。</t>
+    <rPh sb="11" eb="13">
+      <t>カキノ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ホゾンス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-1.開発意図</t>
+    <rPh sb="4" eb="8">
+      <t>カイハテゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-2.アプリ内容</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-2-1.Firebaseで利用する機能</t>
+    <rPh sb="15" eb="17">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-3.Flutterとは？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スマートフォンアプリの開発には馴染みがあるが、まだ触った事が無い開発環境でのアプリ作成についての新規知識開拓のため。</t>
+    <rPh sb="4" eb="6">
+      <t>ナジミ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ナジミ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>サワッタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クロスプラットフォーム開発において今最も人気のあるFlutterを今回の開発環境として選択。</t>
+    <rPh sb="7" eb="8">
+      <t>ヲセンタク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カイハテゥ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="36" eb="40">
+      <t>カイハテゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flutterはホットリロード機能があり、変更のたびにビルドを行わず変更を保存するだけで実行中のアプリに変更が反映される。</t>
+    <rPh sb="15" eb="17">
+      <t>キノウガアル</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オコナワズ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヘンコウヲホズ</t>
+    </rPh>
+    <rPh sb="44" eb="47">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>また、標準で用意されているUIも、googleのマテリアルデザインに沿ったものとなっている。</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジュn</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ソッタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -255,7 +314,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -265,7 +326,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -296,14 +359,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2682,80 +2745,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA3CCB68-254F-2847-B3E2-69F1C46A85E6}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5" defaultRowHeight="20"/>
   <sheetData>
     <row r="1" spans="1:8" ht="24">
-      <c r="A1" s="6" t="s">
-        <v>11</v>
+      <c r="A1" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="C4" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="C5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="C6" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="C7" t="s">
-        <v>5</v>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="C8" t="s">
-        <v>6</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="C9" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="C10" s="1" t="s">
-        <v>13</v>
+      <c r="C10" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" t="s">
-        <v>9</v>
+      <c r="C11" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" t="s">
-        <v>10</v>
+    <row r="13" spans="1:8">
+      <c r="C13" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="B14" s="1" t="s">
-        <v>14</v>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="C18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="C16" t="s">
+    <row r="19" spans="2:3">
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="C21" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2774,8 +2857,8 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
     <row r="1" spans="1:7" ht="24">
-      <c r="A1" s="6" t="s">
-        <v>22</v>
+      <c r="A1" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2791,7 +2874,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F22845C-5164-C147-A951-48DF0827267B}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2804,33 +2887,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24">
-      <c r="A1" s="6" t="s">
-        <v>20</v>
+      <c r="A1" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="B3" s="2" t="s">
-        <v>15</v>
+      <c r="A3" s="1"/>
+      <c r="B3" t="s">
+        <v>19</v>
       </c>
-      <c r="C3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="42">
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="63">
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>18</v>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/設計/設計.xlsx
+++ b/設計/設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fujiitakaharu/vagrant/ubuntu64_18/workspace2/message_app/設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6656C97-0CFA-5847-9B51-C72BC6E7F13D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33DB14F-96D5-2E44-A7B6-40AFEE104B17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="580" windowWidth="28300" windowHeight="16580" xr2:uid="{90E6F4FC-4BB3-1E45-87B0-C6794DF43554}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="28300" windowHeight="16560" xr2:uid="{90E6F4FC-4BB3-1E45-87B0-C6794DF43554}"/>
   </bookViews>
   <sheets>
     <sheet name="1.アプリ概要" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>FlutterはGoogleが開発した、iOS、Android向けアプリのクロスプラットフォーム開発環境。</t>
     <rPh sb="31" eb="32">
@@ -141,9 +141,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2.画面遷移</t>
-  </si>
-  <si>
     <t>ログインユーザ、およびメッセージ入力内容をFirebaseで管理する。</t>
     <rPh sb="0" eb="2">
       <t>ログインユーザ</t>
@@ -241,6 +238,61 @@
     <rPh sb="34" eb="35">
       <t>ソッタ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-2-2.その他、使用する外部のライブラリ</t>
+    <rPh sb="10" eb="12">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガイブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・fluttertoast</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・bubble</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージ一覧表示の際、メッセージを吹き出しに表示する際に使用。</t>
+    <rPh sb="18" eb="19">
+      <t>フキダセィ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一定時間メッセージを表示させるために使用。(AndroidのToastと同じ)</t>
+    <rPh sb="18" eb="25">
+      <t>イッテ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DartはSwiftなどと同じようにオブジェクト指向型の言語で、動的型付け、静的型付けのどちらにも対応している。</t>
+    <rPh sb="32" eb="34">
+      <t>ドウテキ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カタツケ</t>
+    </rPh>
+    <rPh sb="38" eb="42">
+      <t>セイテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.画面遷移</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -905,7 +957,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="546100" y="1917700"/>
+          <a:off x="546100" y="1968500"/>
           <a:ext cx="889987" cy="328295"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2745,7 +2797,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA3CCB68-254F-2847-B3E2-69F1C46A85E6}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2758,22 +2810,22 @@
     </row>
     <row r="3" spans="1:8">
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2793,12 +2845,12 @@
     </row>
     <row r="11" spans="1:8">
       <c r="C11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2817,29 +2869,55 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="1" t="s">
-        <v>23</v>
+    <row r="16" spans="1:8">
+      <c r="C16" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
-      <c r="C18" t="s">
+    <row r="17" spans="2:8">
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="C22" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
-      <c r="C19" t="s">
+    <row r="23" spans="2:8">
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="C24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
-      <c r="C20" t="s">
-        <v>27</v>
+    <row r="25" spans="2:8">
+      <c r="C25" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
-      <c r="C21" t="s">
-        <v>1</v>
+    <row r="26" spans="2:8">
+      <c r="C26" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2852,13 +2930,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB3B296-8E5A-5044-B7F2-E644D4E1E033}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
     <row r="1" spans="1:7" ht="24">
       <c r="A1" s="4" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2868,6 +2946,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -2897,7 +2976,7 @@
     <row r="3" spans="1:4">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">

--- a/設計/設計.xlsx
+++ b/設計/設計.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fujiitakaharu/vagrant/ubuntu64_18/workspace2/message_app/設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33DB14F-96D5-2E44-A7B6-40AFEE104B17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C643E66A-32C2-F14B-BF85-69C9D4F2B0C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="460" windowWidth="28300" windowHeight="16560" xr2:uid="{90E6F4FC-4BB3-1E45-87B0-C6794DF43554}"/>
   </bookViews>
   <sheets>
     <sheet name="1.アプリ概要" sheetId="2" r:id="rId1"/>
     <sheet name="2.画面遷移" sheetId="1" r:id="rId2"/>
-    <sheet name="3.Firestore保存情報" sheetId="3" r:id="rId3"/>
+    <sheet name="3.Cloud Firestore保存情報" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>FlutterはGoogleが開発した、iOS、Android向けアプリのクロスプラットフォーム開発環境。</t>
     <rPh sb="31" eb="32">
@@ -133,9 +133,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3.Firestore保存情報</t>
-  </si>
-  <si>
     <t>メッセージ投稿者
 (ログイン時のメールアドレス)</t>
     <phoneticPr fontId="1"/>
@@ -293,6 +290,50 @@
   </si>
   <si>
     <t>2.画面遷移</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TAG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ型</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Timestamp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.Cloud Firestore保存情報</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※Firestoreはkey:valueの形で値を保持する、NoSQLタイプのストレージ</t>
+    <rPh sb="23" eb="24">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1つのメッセージにつき上記のデータを1つ登録する。</t>
+    <rPh sb="11" eb="13">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>トウロク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -300,7 +341,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -334,47 +375,35 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -405,20 +434,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2804,28 +2833,28 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="5" defaultRowHeight="20"/>
   <sheetData>
     <row r="1" spans="1:8" ht="24">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2845,12 +2874,12 @@
     </row>
     <row r="11" spans="1:8">
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="C13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2871,28 +2900,28 @@
     </row>
     <row r="16" spans="1:8">
       <c r="C16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="2:8">
       <c r="D17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="2:8">
       <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" t="s">
         <v>29</v>
-      </c>
-      <c r="H18" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="2:8">
@@ -2902,12 +2931,12 @@
     </row>
     <row r="23" spans="2:8">
       <c r="C23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="2:8">
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="2:8">
@@ -2917,7 +2946,7 @@
     </row>
     <row r="26" spans="2:8">
       <c r="C26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2935,8 +2964,8 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
     <row r="1" spans="1:7" ht="24">
-      <c r="A1" s="4" t="s">
-        <v>33</v>
+      <c r="A1" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2953,9 +2982,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F22845C-5164-C147-A951-48DF0827267B}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
@@ -2966,8 +2997,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24">
-      <c r="A1" s="4" t="s">
-        <v>15</v>
+      <c r="A1" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2976,29 +3007,61 @@
     <row r="3" spans="1:4">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="42">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="42">
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/設計/設計.xlsx
+++ b/設計/設計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fujiitakaharu/vagrant/ubuntu64_18/workspace2/message_app/設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C643E66A-32C2-F14B-BF85-69C9D4F2B0C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEA52A0-36EE-D441-A8C4-80B3B9F77C23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="460" windowWidth="28300" windowHeight="16560" xr2:uid="{90E6F4FC-4BB3-1E45-87B0-C6794DF43554}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="1.アプリ概要" sheetId="2" r:id="rId1"/>
     <sheet name="2.画面遷移" sheetId="1" r:id="rId2"/>
     <sheet name="3.Cloud Firestore保存情報" sheetId="3" r:id="rId3"/>
+    <sheet name="4.画面設計" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="82">
   <si>
     <t>FlutterはGoogleが開発した、iOS、Android向けアプリのクロスプラットフォーム開発環境。</t>
     <rPh sb="31" eb="32">
@@ -334,6 +335,204 @@
     <rPh sb="20" eb="22">
       <t>トウロク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.画面設計</t>
+  </si>
+  <si>
+    <t>4-1. 新規登録/ログイン画面</t>
+    <rPh sb="5" eb="9">
+      <t>シンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●パーツ構成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンポーネント名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主なプロパティ設定</t>
+    <rPh sb="0" eb="1">
+      <t>オモナ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AppBar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TextFormField</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hintText: 'メールアドレス入力'
+labelText: 'メールアドレス'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス入力欄</t>
+    <rPh sb="7" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード入力欄</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RaisedButton</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録ボタン</t>
+    <rPh sb="0" eb="4">
+      <t>シンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑤</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>child: const Text("新規登録")</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>child: const Text("ログイン")</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>obscureText: true
+hintText: 'パスワード入力'
+labelText: 'パスワード'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-2.メッセージ一覧画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ListView</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージ一覧をリスト表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>appBar: Text(title: "ユーザ登録/ログイン")</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Text</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿者メールアドレス</t>
+    <rPh sb="0" eb="3">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿日時</t>
+    <rPh sb="0" eb="1">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bubble</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吹き出し風メッセージ枠</t>
+    <rPh sb="0" eb="1">
+      <t>フキダセィ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FloatingActionButton</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージ投稿ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>メッセージトウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>⑥</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>appBar: Text(title: "メッセージ一覧")
+IconButton</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルバー
+ログアウトボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-3.ログアウトダイアログ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-4.メッセージ入力画面</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -398,7 +597,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -421,13 +620,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -447,6 +657,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -472,13 +688,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -532,13 +748,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>215900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -590,7 +806,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328295"/>
@@ -652,7 +868,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1172116" cy="328295"/>
@@ -714,13 +930,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>914400</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -786,13 +1002,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -844,13 +1060,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -916,13 +1132,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>241300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>241300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -969,7 +1185,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="889987" cy="328295"/>
@@ -1027,13 +1243,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1087,7 +1303,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>241300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1916230" cy="264560"/>
@@ -1162,13 +1378,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>215900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1227,7 +1443,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1927259" cy="264560"/>
@@ -1302,13 +1518,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>863600</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1372,13 +1588,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1425,7 +1641,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1172116" cy="576957"/>
@@ -1490,7 +1706,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>241300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1930400" cy="328295"/>
@@ -1562,7 +1778,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>ログイン画面</a:t>
+            <a:t>ログイン</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1573,7 +1789,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1930400" cy="328295"/>
@@ -1629,7 +1845,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>メッセージ一覧画面</a:t>
+            <a:t>メッセージ一覧</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1640,13 +1856,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>927100</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1700,13 +1916,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>215900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1763,67 +1979,14 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="直線矢印コネクタ 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{538E8849-5B32-D14B-A8C1-3FE493AD55CF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3962400" y="1257300"/>
-          <a:ext cx="3378200" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2540000" cy="576957"/>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2336800" cy="576957"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="29" name="テキスト ボックス 28">
@@ -1837,8 +2000,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3835400" y="571500"/>
-          <a:ext cx="2540000" cy="576957"/>
+          <a:off x="3695700" y="774700"/>
+          <a:ext cx="2336800" cy="576957"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1893,13 +2056,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>889000</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1967,13 +2130,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2034,13 +2197,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2094,7 +2257,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1930400" cy="328295"/>
@@ -2150,7 +2313,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>メッセージ入力画面</a:t>
+            <a:t>メッセージ入力</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2161,13 +2324,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>825500</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2222,13 +2385,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2294,13 +2457,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>889000</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2347,7 +2510,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2222500" cy="576957"/>
@@ -2412,13 +2575,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>241300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>241300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2465,7 +2628,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2222500" cy="576957"/>
@@ -2526,6 +2689,2115 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>850900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="正方形/長方形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BB47A7D-E1A4-0743-AB54-07CA280F9BD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7518400" y="457200"/>
+          <a:ext cx="1917700" cy="1270000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>850900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1930400" cy="328295"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="テキスト ボックス 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C48F3DE-8DC7-A048-93BF-40A53EE75101}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7518400" y="444500"/>
+          <a:ext cx="1930400" cy="328295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ログアウトしますか？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="正方形/長方形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86A31953-7081-D14F-B5FF-691387680BA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7708900" y="1231900"/>
+          <a:ext cx="774700" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>キャンセル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>939800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="正方形/長方形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{212CA360-12FD-3440-BB5A-0986B6479709}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8559800" y="1231900"/>
+          <a:ext cx="774700" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ログアウト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直線矢印コネクタ 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3B584D5-94F8-E249-8F9D-88DF3534B392}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="25" idx="0"/>
+          <a:endCxn id="34" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7480300" y="1727200"/>
+          <a:ext cx="996950" cy="635000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="41275">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>151448</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直線矢印コネクタ 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0C234E8-8C0A-A549-AECF-457195419BFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="23" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3848100" y="723900"/>
+          <a:ext cx="3657600" cy="1713548"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直線矢印コネクタ 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75226CB5-EAFC-764D-9195-322B87C26DE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6718300" y="1562100"/>
+          <a:ext cx="1066800" cy="736600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="41275">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1701800" cy="576957"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="テキスト ボックス 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89E8129E-67F7-044E-8DDF-CCC0AA27CEF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5575300" y="1600200"/>
+          <a:ext cx="1701800" cy="576957"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>キャンセルで</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>メッセージ一覧に戻る。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1473200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{802734CF-1D90-AC47-B3F7-FD88AE7EBF61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="508000" y="571500"/>
+          <a:ext cx="1917700" cy="2794000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1308100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2483AAC7-C980-2643-A302-23050A55B405}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="622300" y="1193800"/>
+          <a:ext cx="1638300" cy="355600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="889987" cy="328295"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41ABE423-F818-DD4A-AB92-FED6084B5F91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="495300" y="1587500"/>
+          <a:ext cx="889987" cy="328295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>パスワード</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1172116" cy="328295"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5CCB551-BF26-2C4E-8022-1CF4EB315DA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="495300" y="914400"/>
+          <a:ext cx="1172116" cy="328295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メールアドレス</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C9EFB10-EE80-ED44-B87F-9E3893B6733B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="635000" y="2349500"/>
+          <a:ext cx="774700" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>新規登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1308100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E078E46F-DE4A-8F47-B3DF-6DFCEFE19F21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="622300" y="1854200"/>
+          <a:ext cx="1638300" cy="355600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1308100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{403FB11B-3A6E-A049-88FB-9FF14382CA94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1485900" y="2349500"/>
+          <a:ext cx="774700" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ログイン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1930400" cy="328295"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DA5ADCD-DF02-B748-AA94-ACD018C448AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="508000" y="558800"/>
+          <a:ext cx="1930400" cy="328295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ユーザ登録</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ログイン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1460500</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="正方形/長方形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4DDC256-B0A8-1347-9236-D8EED7F82C9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="495300" y="7251700"/>
+          <a:ext cx="1917700" cy="2794000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1916230" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="テキスト ボックス 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04E9C8A8-30DC-1240-8EBA-2008326E19B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="495300" y="7721600"/>
+          <a:ext cx="1916230" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>xxxx@co.jp</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  2020/10:30 12:30</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1358900</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="四角形吹き出し 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9C5A20E-30C5-6046-A792-B4506CB8A7E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="635000" y="7962900"/>
+          <a:ext cx="1676400" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -53787"/>
+            <a:gd name="adj2" fmla="val 2275"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>あいうえお</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1927259" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="テキスト ボックス 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00119B87-72FA-E545-B200-1283DE9A257A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="482600" y="8280400"/>
+          <a:ext cx="1927259" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>yyyy@co.jp</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  2020/10:30 13:30</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1346200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="四角形吹き出し 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E91C3026-D524-8042-96D7-16AFCFAE8DB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="622300" y="8521700"/>
+          <a:ext cx="1676400" cy="241300"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 55304"/>
+            <a:gd name="adj2" fmla="val 12801"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>かきくけこ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1930400" cy="328295"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="テキスト ボックス 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECA2BDCC-9608-CD47-9F81-4AF555058130}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="495300" y="7239000"/>
+          <a:ext cx="1930400" cy="328295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メッセージ一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1409700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="正方形/長方形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7A278CF-1DEC-6446-AAC5-8EB7830DF025}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2133600" y="7302500"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1041400</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="円/楕円 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37D0C068-AE7C-9C49-9837-9BDC60D07D51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1993900" y="9639300"/>
+          <a:ext cx="330200" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1473200</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="正方形/長方形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{409294CB-A69F-1741-982E-6C30734027EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="508000" y="13716000"/>
+          <a:ext cx="1917700" cy="1270000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1930400" cy="328295"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="テキスト ボックス 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79CDF9EF-84D5-1248-A5D5-B39805DB5F7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="508000" y="13703300"/>
+          <a:ext cx="1930400" cy="328295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ログアウトしますか？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="正方形/長方形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75527773-F923-6744-B81D-C06955394D90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="698500" y="14490700"/>
+          <a:ext cx="774700" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>キャンセル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="正方形/長方形 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{625BA1D4-E725-9D4C-AFE5-19D15977ABAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1549400" y="14490700"/>
+          <a:ext cx="774700" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ログアウト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1473200</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="正方形/長方形 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D68A3A9-85F9-4A4C-A8FF-C5B2002AA824}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="508000" y="17526000"/>
+          <a:ext cx="1917700" cy="2794000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1930400" cy="328295"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="テキスト ボックス 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95637328-5977-6D4E-B2B5-A3FE9B50F90B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="508000" y="17513300"/>
+          <a:ext cx="1930400" cy="328295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>メッセージ入力</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1320800</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="正方形/長方形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAE78280-EE8C-0A4D-B32D-DA8E01FBD970}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="635000" y="17970500"/>
+          <a:ext cx="1638300" cy="355600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>さしすせそ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1333500</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="正方形/長方形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39D9CFA3-7931-354A-9F6C-A7724C6A6D92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="660400" y="18440400"/>
+          <a:ext cx="1625600" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>送信</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2957,7 +5229,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB3B296-8E5A-5044-B7F2-E644D4E1E033}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -2968,9 +5240,21 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="C4" s="1"/>
-      <c r="G4" s="1"/>
+    <row r="2" spans="1:7" ht="24">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="24">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="24">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="24">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="C8" s="1"/>
+      <c r="G8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2984,9 +5268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F22845C-5164-C147-A951-48DF0827267B}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
@@ -3068,4 +5350,246 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D83F17-EFEB-984D-AD75-E8217E4EDA26}">
+  <dimension ref="A1:E64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" customWidth="1"/>
+    <col min="3" max="3" width="41.28515625" customWidth="1"/>
+    <col min="4" max="4" width="42.5703125" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="24">
+      <c r="A1" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="24">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="B18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="B19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="42">
+      <c r="B20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="63">
+      <c r="B21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="B22" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="B40" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="42">
+      <c r="B41" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="21">
+      <c r="B42" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="21">
+      <c r="B43" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="B44" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="B45" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="B46" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/設計/設計.xlsx
+++ b/設計/設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fujiitakaharu/vagrant/ubuntu64_18/workspace2/message_app/設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEA52A0-36EE-D441-A8C4-80B3B9F77C23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEF37C8-9124-8344-9390-47A3259ED6BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="28300" windowHeight="16560" xr2:uid="{90E6F4FC-4BB3-1E45-87B0-C6794DF43554}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="28300" windowHeight="16540" xr2:uid="{90E6F4FC-4BB3-1E45-87B0-C6794DF43554}"/>
   </bookViews>
   <sheets>
     <sheet name="1.アプリ概要" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="83">
   <si>
     <t>FlutterはGoogleが開発した、iOS、Android向けアプリのクロスプラットフォーム開発環境。</t>
     <rPh sb="31" eb="32">
@@ -533,6 +533,13 @@
   </si>
   <si>
     <t>4-4.メッセージ入力画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発自体は、Pluginを入れることでAndroidStudioでの開発が可能。</t>
+    <rPh sb="0" eb="1">
+      <t>カイハテゥ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5098,7 +5105,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA3CCB68-254F-2847-B3E2-69F1C46A85E6}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5203,21 +5210,26 @@
     </row>
     <row r="23" spans="2:8">
       <c r="C23" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="2:8">
       <c r="C24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="2:8">
       <c r="C25" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="2:8">
       <c r="C26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="C27" t="s">
         <v>31</v>
       </c>
     </row>

--- a/設計/設計.xlsx
+++ b/設計/設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fujiitakaharu/vagrant/ubuntu64_18/workspace2/message_app/設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEF37C8-9124-8344-9390-47A3259ED6BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2192844-3A2D-FF4F-85A3-8B967440AE52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="28300" windowHeight="16540" xr2:uid="{90E6F4FC-4BB3-1E45-87B0-C6794DF43554}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="28300" windowHeight="16500" xr2:uid="{90E6F4FC-4BB3-1E45-87B0-C6794DF43554}"/>
   </bookViews>
   <sheets>
     <sheet name="1.アプリ概要" sheetId="2" r:id="rId1"/>
@@ -5107,7 +5107,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA3CCB68-254F-2847-B3E2-69F1C46A85E6}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5" defaultRowHeight="20"/>
   <sheetData>
@@ -5243,7 +5243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB3B296-8E5A-5044-B7F2-E644D4E1E033}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
@@ -5280,7 +5280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F22845C-5164-C147-A951-48DF0827267B}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
@@ -5368,7 +5368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D83F17-EFEB-984D-AD75-E8217E4EDA26}">
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>

--- a/設計/設計.xlsx
+++ b/設計/設計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fujiitakaharu/vagrant/ubuntu64_18/workspace2/message_app/設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2192844-3A2D-FF4F-85A3-8B967440AE52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2585142E-E367-2C4E-A951-8B37451656F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="460" windowWidth="28300" windowHeight="16500" xr2:uid="{90E6F4FC-4BB3-1E45-87B0-C6794DF43554}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="93">
   <si>
     <t>FlutterはGoogleが開発した、iOS、Android向けアプリのクロスプラットフォーム開発環境。</t>
     <rPh sb="31" eb="32">
@@ -540,6 +540,52 @@
     <rPh sb="0" eb="1">
       <t>カイハテゥ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャンセル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャンセルボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウトボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>appBar: Text(title: "ログアウトしますか？")</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TextField</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>送信</t>
+    <rPh sb="0" eb="2">
+      <t>ソウシn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>送信ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>ソウシn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージ入力</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>appBar: Text(title: "メッセージ入力")</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4549,13 +4595,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1473200</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4609,7 +4655,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1930400" cy="328295"/>
@@ -4676,13 +4722,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1320800</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4737,13 +4783,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5366,7 +5412,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D83F17-EFEB-984D-AD75-E8217E4EDA26}">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5589,14 +5635,134 @@
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="1:5">
       <c r="B49" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="64" spans="2:2">
-      <c r="B64" t="s">
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="B57" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="21">
+      <c r="B58" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="21">
+      <c r="B59" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="B60" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="B63" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="B77" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="21">
+      <c r="B78" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="B79" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D79" s="4"/>
+      <c r="E79" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="B80" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/設計/設計.xlsx
+++ b/設計/設計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fujiitakaharu/vagrant/ubuntu64_18/workspace2/message_app/設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2585142E-E367-2C4E-A951-8B37451656F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B46E9E4-71BD-F24D-9413-0B8A3A50035E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="460" windowWidth="28300" windowHeight="16500" xr2:uid="{90E6F4FC-4BB3-1E45-87B0-C6794DF43554}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="94">
   <si>
     <t>FlutterはGoogleが開発した、iOS、Android向けアプリのクロスプラットフォーム開発環境。</t>
     <rPh sb="31" eb="32">
@@ -586,6 +586,11 @@
   </si>
   <si>
     <t>appBar: Text(title: "メッセージ入力")</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hintText: 'メッセージ入力'
+labelText: 'メッセージ'</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5739,14 +5744,16 @@
         <v>55</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" ht="42">
       <c r="B79" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C79" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D79" s="4"/>
+      <c r="D79" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="E79" s="3" t="s">
         <v>91</v>
       </c>

--- a/設計/設計.xlsx
+++ b/設計/設計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fujiitakaharu/vagrant/ubuntu64_18/workspace2/message_app/設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B46E9E4-71BD-F24D-9413-0B8A3A50035E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBED2B6F-B5B0-1F43-BD02-D8F34CBC17FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="460" windowWidth="28300" windowHeight="16500" xr2:uid="{90E6F4FC-4BB3-1E45-87B0-C6794DF43554}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>FlutterはGoogleが開発した、iOS、Android向けアプリのクロスプラットフォーム開発環境。</t>
     <rPh sb="31" eb="32">
@@ -474,20 +474,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>投稿者メールアドレス</t>
-    <rPh sb="0" eb="3">
-      <t>トウコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>投稿日時</t>
-    <rPh sb="0" eb="1">
-      <t>トウコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Bubble</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -514,10 +500,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>⑥</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>appBar: Text(title: "メッセージ一覧")
 IconButton</t>
     <phoneticPr fontId="1"/>
@@ -591,6 +573,13 @@
   <si>
     <t>hintText: 'メッセージ入力'
 labelText: 'メッセージ'</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿者メールアドレス/投稿日時</t>
+    <rPh sb="0" eb="3">
+      <t>トウコウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3278,7 +3267,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="508000" y="571500"/>
+          <a:off x="508000" y="876300"/>
           <a:ext cx="1917700" cy="2794000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3805,7 +3794,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="495300" y="7251700"/>
+          <a:off x="495300" y="7556500"/>
           <a:ext cx="1917700" cy="2794000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4329,13 +4318,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1473200</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4389,7 +4378,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1930400" cy="328295"/>
@@ -4456,13 +4445,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4528,13 +4517,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1371600</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4600,13 +4589,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1473200</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4660,7 +4649,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1930400" cy="328295"/>
@@ -4727,13 +4716,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1320800</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4788,13 +4777,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4856,6 +4845,1038 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="392800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="テキスト ボックス 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A929E8E8-FB45-D743-96F7-26D1B3D3FAC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="368300" y="774700"/>
+          <a:ext cx="304800" cy="392800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="392800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="テキスト ボックス 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B073C6E-F795-5B42-8E95-35401310FB28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="495300" y="1397000"/>
+          <a:ext cx="304800" cy="392800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="392800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="テキスト ボックス 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C232FBBD-ABF1-5242-AFD4-955E08B6D763}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="520700" y="2171700"/>
+          <a:ext cx="304800" cy="392800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>③</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="392800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="テキスト ボックス 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C050852-013F-D44B-AB0D-B617E51C942C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="2616200"/>
+          <a:ext cx="304800" cy="392800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>④</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="392800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="テキスト ボックス 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE4B3A4D-2579-504E-BB2D-479C8AA0DF6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1384300" y="2616200"/>
+          <a:ext cx="304800" cy="392800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑤</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="392800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="テキスト ボックス 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7187538-A08E-1542-9056-4B4198E410FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="342900" y="7518400"/>
+          <a:ext cx="304800" cy="392800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="392800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="テキスト ボックス 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0870E162-E6CB-7947-B116-B1EA3EA13028}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="279400" y="7912100"/>
+          <a:ext cx="304800" cy="392800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="392800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="テキスト ボックス 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C97D4534-6498-564F-888A-B058B3A52DFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="850900" y="7886700"/>
+          <a:ext cx="304800" cy="392800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>③</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="392800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="テキスト ボックス 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{787B1405-0D8A-4B4D-9DC4-76F53F690D6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1320800" y="8178800"/>
+          <a:ext cx="304800" cy="392800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>④</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>927100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="392800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="テキスト ボックス 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24B943F1-8F21-4A4E-B94E-BBE04DE521AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1879600" y="9855200"/>
+          <a:ext cx="304800" cy="392800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑤</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="392800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="テキスト ボックス 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAA06B57-6482-6048-A095-364553EECB8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="355600" y="13411200"/>
+          <a:ext cx="304800" cy="392800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="392800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="テキスト ボックス 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A414FC32-FE2C-674F-A6E5-90B96C95B8DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="596900" y="14109700"/>
+          <a:ext cx="304800" cy="392800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="392800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="テキスト ボックス 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{383196C4-FEF9-5F46-B454-7C045A90371D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1447800" y="14084300"/>
+          <a:ext cx="304800" cy="392800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>③</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="392800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="テキスト ボックス 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66888D1D-9E49-064C-A0D9-7AF4C62C747E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="368300" y="16929100"/>
+          <a:ext cx="304800" cy="392800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="392800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="テキスト ボックス 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7070774A-0C53-874E-BAE0-3E623EC98332}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="520700" y="17373600"/>
+          <a:ext cx="304800" cy="392800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="392800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="テキスト ボックス 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22CCA223-6D25-8B41-8CAC-09637D02A45C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="584200" y="17881600"/>
+          <a:ext cx="304800" cy="392800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>③</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5261,7 +6282,7 @@
     </row>
     <row r="23" spans="2:8">
       <c r="C23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="2:8">
@@ -5417,7 +6438,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D83F17-EFEB-984D-AD75-E8217E4EDA26}">
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5564,10 +6585,10 @@
         <v>46</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="21">
@@ -5578,7 +6599,7 @@
         <v>66</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>67</v>
@@ -5592,10 +6613,10 @@
         <v>69</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -5603,10 +6624,10 @@
         <v>60</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>71</v>
@@ -5617,159 +6638,145 @@
         <v>61</v>
       </c>
       <c r="C45" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="E45" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>73</v>
-      </c>
     </row>
-    <row r="46" spans="1:5">
-      <c r="B46" s="7" t="s">
+    <row r="48" spans="1:5">
+      <c r="B48" t="s">
         <v>77</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>76</v>
-      </c>
     </row>
-    <row r="49" spans="1:5">
-      <c r="B49" t="s">
-        <v>80</v>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" t="s">
-        <v>43</v>
+      <c r="B56" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="B57" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>56</v>
+    <row r="57" spans="1:5" ht="21">
+      <c r="B57" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="21">
       <c r="B58" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>55</v>
+        <v>80</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="21">
+    <row r="59" spans="1:5">
       <c r="B59" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>85</v>
-      </c>
     </row>
-    <row r="60" spans="1:5">
-      <c r="B60" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>86</v>
+    <row r="62" spans="1:5">
+      <c r="B62" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
-      <c r="B63" t="s">
-        <v>81</v>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" t="s">
-        <v>43</v>
+      <c r="B76" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
-      <c r="B77" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>56</v>
+    <row r="77" spans="1:5" ht="21">
+      <c r="B77" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="21">
+    <row r="78" spans="1:5" ht="42">
       <c r="B78" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>55</v>
+        <v>90</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="42">
+    <row r="79" spans="1:5">
       <c r="B79" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>93</v>
+        <v>57</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="B80" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/設計/設計.xlsx
+++ b/設計/設計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fujiitakaharu/vagrant/ubuntu64_18/workspace2/message_app/設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBED2B6F-B5B0-1F43-BD02-D8F34CBC17FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDE29C1-DC7D-284E-AD07-DFA815FBDF85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="460" windowWidth="28300" windowHeight="16500" xr2:uid="{90E6F4FC-4BB3-1E45-87B0-C6794DF43554}"/>
   </bookViews>
